--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\IPCAI2025\IJCARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67546387-5F96-4DA4-A38F-31572116AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BD8008-5106-4711-BD70-430E0492286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,52 +1286,52 @@
         <v>44</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="V10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="W10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
